--- a/tests/data/SY02 Notes.xlsx
+++ b/tests/data/SY02 Notes.xlsx
@@ -246,18 +246,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.65"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,300 +429,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>